--- a/src/main/resources/spreadsheet/ExportOrderDetailsSeller_YYYY_MM_DD.xlsx
+++ b/src/main/resources/spreadsheet/ExportOrderDetailsSeller_YYYY_MM_DD.xlsx
@@ -11,11 +11,9 @@
     <sheet name="賣家交易訂單明細" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Pivot" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="代碼" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="範本" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t xml:space="preserve">訂單編號</t>
   </si>
@@ -39,55 +37,55 @@
     <t xml:space="preserve">數量</t>
   </si>
   <si>
+    <t xml:space="preserve">單價</t>
+  </si>
+  <si>
     <t xml:space="preserve">狀態</t>
   </si>
   <si>
-    <t xml:space="preserve">單價</t>
-  </si>
-  <si>
     <t xml:space="preserve">金額</t>
   </si>
   <si>
+    <t xml:space="preserve">交易金額</t>
+  </si>
+  <si>
     <t xml:space="preserve">0001</t>
   </si>
   <si>
+    <t xml:space="preserve">直筒工作褲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">圓領長版上衣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(空缺)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">總計 結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狀態名稱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取消</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已建立</t>
+  </si>
+  <si>
+    <t xml:space="preserve">處理中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已關閉</t>
+  </si>
+  <si>
     <t xml:space="preserve">2022-12-23T00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">圓領長版上衣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">取消</t>
-  </si>
-  <si>
-    <t xml:space="preserve">直筒工作褲</t>
-  </si>
-  <si>
-    <t xml:space="preserve">交易金額</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(空缺)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">總計 結果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">代碼</t>
-  </si>
-  <si>
-    <t xml:space="preserve">狀態名稱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">完成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已建立</t>
-  </si>
-  <si>
-    <t xml:space="preserve">處理中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已關閉</t>
   </si>
 </sst>
 </file>
@@ -341,143 +339,147 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="25" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="19" xfId="26" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="26" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="26" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="26" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="26" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="19" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -490,129 +492,14 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Normal 2" xfId="20"/>
-    <cellStyle name="樞紐分析表邊角" xfId="21"/>
-    <cellStyle name="樞紐分析表的值" xfId="22"/>
-    <cellStyle name="樞紐分析表欄位" xfId="23"/>
-    <cellStyle name="樞紐分析表類別" xfId="24"/>
-    <cellStyle name="樞紐分析表標題" xfId="25"/>
-    <cellStyle name="樞紐分析表結果" xfId="26"/>
+    <cellStyle name="樞紐分析表標題" xfId="21"/>
+    <cellStyle name="樞紐分析表欄位" xfId="22"/>
+    <cellStyle name="樞紐分析表的值" xfId="23"/>
+    <cellStyle name="樞紐分析表結果" xfId="24"/>
+    <cellStyle name="樞紐分析表邊角" xfId="25"/>
+    <cellStyle name="樞紐分析表類別" xfId="26"/>
   </cellStyles>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="2" createdVersion="3">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B:H" sheet="賣家交易訂單明細"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="訂單編號" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="0001"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="訂單日期" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="2022-12-23T00:00:00"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="商品" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="直筒工作褲"/>
-        <s v="圓領長版上衣"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="數量" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="3">
-        <n v="1"/>
-        <n v="2"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="狀態" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="取消"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="單價" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="490" maxValue="690" count="3">
-        <n v="490"/>
-        <n v="690"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="金額" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="690" maxValue="980" count="3">
-        <n v="690"/>
-        <n v="980"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="B5:D10" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="7">
-    <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="2"/>
-  </rowFields>
-  <dataFields count="1">
-    <dataField name="交易金額" fld="6" subtotal="sum" numFmtId="166"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,88 +507,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H3"/>
+  <dimension ref="B1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="3" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <v>490</v>
-      </c>
-      <c r="H2" s="8" t="n">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <v>690</v>
-      </c>
-      <c r="H3" s="8" t="n">
-        <v>690</v>
-      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -721,73 +591,73 @@
   </sheetPr>
   <dimension ref="B5:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="20.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="10.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="8.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="13.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="9" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="10.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="8.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="13.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="10" width="9.14"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="n">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="19" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="n">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="18" t="n">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21" t="n">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="n">
+      <c r="C10" s="27"/>
+      <c r="D10" s="28" t="n">
         <v>1670</v>
       </c>
     </row>
@@ -810,63 +680,63 @@
   </sheetPr>
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="28" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="23.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="28" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="29" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="29" width="23.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="4" style="29" width="9.14"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="29" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="28" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="28" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -878,4 +748,125 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:I5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.49"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="n">
+        <v>490</v>
+      </c>
+      <c r="G2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9" t="n">
+        <f aca="false">E2*F2</f>
+        <v>980</v>
+      </c>
+      <c r="I2" s="9" t="e">
+        <f aca="false">VLOOKUP(G2,#REF!,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>690</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <f aca="false">E3*F3</f>
+        <v>690</v>
+      </c>
+      <c r="I3" s="9" t="e">
+        <f aca="false">VLOOKUP(G3,#REF!,2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="9"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;Kffffff頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/resources/spreadsheet/ExportOrderDetailsSeller_YYYY_MM_DD.xlsx
+++ b/src/main/resources/spreadsheet/ExportOrderDetailsSeller_YYYY_MM_DD.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t xml:space="preserve">訂單編號</t>
   </si>
@@ -70,19 +70,34 @@
     <t xml:space="preserve">狀態名稱</t>
   </si>
   <si>
-    <t xml:space="preserve">取消</t>
-  </si>
-  <si>
-    <t xml:space="preserve">完成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已建立</t>
-  </si>
-  <si>
-    <t xml:space="preserve">處理中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">已關閉</t>
+    <t xml:space="preserve">賣家待確認</t>
+  </si>
+  <si>
+    <t xml:space="preserve">買家取消(訂單不成立)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">賣家取消(訂單不成立)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">訂單成立</t>
+  </si>
+  <si>
+    <t xml:space="preserve">賣家理貨中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">商品已出貨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">訂單完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">付款成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">付款失敗(訂單不成立)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">退貨</t>
   </si>
   <si>
     <t xml:space="preserve">2022-12-23T00:00:00</t>
@@ -509,8 +524,8 @@
   </sheetPr>
   <dimension ref="B1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -518,7 +533,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="3" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="3" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,7 +695,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
@@ -701,7 +718,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>15</v>
@@ -709,15 +726,15 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>17</v>
@@ -725,7 +742,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>18</v>
@@ -733,10 +750,50 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="29" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="29" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="29" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
@@ -831,7 +888,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>9</v>

--- a/src/main/resources/spreadsheet/ExportOrderDetailsSeller_YYYY_MM_DD.xlsx
+++ b/src/main/resources/spreadsheet/ExportOrderDetailsSeller_YYYY_MM_DD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="賣家交易訂單明細" sheetId="1" state="visible" r:id="rId2"/>
@@ -524,8 +524,8 @@
   </sheetPr>
   <dimension ref="B1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -697,8 +697,8 @@
   </sheetPr>
   <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
